--- a/issuance_new_deal_template.XLSX
+++ b/issuance_new_deal_template.XLSX
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MTGE\automation\exch_etl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliu439\PycharmProjects\exch_etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81028,10 +81028,10 @@
   <dimension ref="A1:KN330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
@@ -81705,9 +81705,6 @@
       <c r="B9" s="7">
         <v>40179</v>
       </c>
-      <c r="C9" s="7">
-        <v>40179</v>
-      </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -82013,9 +82010,6 @@
       <c r="B10" s="7">
         <v>40179</v>
       </c>
-      <c r="C10" s="7">
-        <v>40179</v>
-      </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -82321,9 +82315,6 @@
       <c r="B11" s="7">
         <v>40179</v>
       </c>
-      <c r="C11" s="7">
-        <v>40179</v>
-      </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -82629,9 +82620,6 @@
       <c r="B12" s="7">
         <v>40179</v>
       </c>
-      <c r="C12" s="7">
-        <v>40179</v>
-      </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -83002,9 +82990,6 @@
         <v>88</v>
       </c>
       <c r="B24" s="7">
-        <v>40179</v>
-      </c>
-      <c r="C24" s="7">
         <v>40179</v>
       </c>
       <c r="D24" s="48"/>
@@ -86919,9 +86904,7 @@
       <c r="B87" s="7">
         <v>40179</v>
       </c>
-      <c r="C87" s="7">
-        <v>40179</v>
-      </c>
+      <c r="C87" s="7"/>
       <c r="D87" s="48"/>
       <c r="E87" s="48"/>
       <c r="F87" s="48"/>
@@ -88894,9 +88877,7 @@
       <c r="B123" s="7">
         <v>40179</v>
       </c>
-      <c r="C123" s="7">
-        <v>40179</v>
-      </c>
+      <c r="C123" s="7"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
